--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -40,13 +40,38 @@
     <t xml:space="preserve">status</t>
   </si>
   <si>
+    <t xml:space="preserve">irfan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">300922</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1540</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">make team_details.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done</t>
+  </si>
+  <si>
     <t xml:space="preserve">yusril</t>
   </si>
   <si>
     <t xml:space="preserve">find dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">done</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -65,11 +90,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -85,6 +111,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,17 +186,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.47"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.52"/>
   </cols>
@@ -198,16 +229,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3009221800</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1308221540</v>
+        <v>3009221300</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -215,19 +246,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="n">
+        <v>3009221800</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>1308221540</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
+      <c r="C4" s="1" t="n">
+        <v>1308221540</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -43,23 +43,7 @@
     <t xml:space="preserve">irfan</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">300922</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1540</t>
-    </r>
+    <t xml:space="preserve">3009221540</t>
   </si>
   <si>
     <t xml:space="preserve">make team_details.xlsx</t>
@@ -71,16 +55,16 @@
     <t xml:space="preserve">yusril</t>
   </si>
   <si>
-    <t xml:space="preserve">find dataset</t>
+    <t xml:space="preserve">add dataset for modelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ongoing</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">modelling dataset with cnn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ongoing</t>
   </si>
 </sst>
 </file>
@@ -90,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -111,11 +95,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,7 +168,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -258,7 +237,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -272,13 +251,13 @@
         <v>1308221540</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
